--- a/score modele.xlsx
+++ b/score modele.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menar\Documents\projet_certifIA_banque_clean\projet_certifIA_clean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645CB6B3-28BC-4CED-AEC4-D92EA6DCC99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52F9B35-C666-48FE-B14F-C88E65DD510F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{04475BA1-743C-4725-9758-636E9DBD6908}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t xml:space="preserve"> Quelle est la prévision de croissance du PIB pour l’année 2022 dans le rapport ?</t>
   </si>
@@ -42,9 +42,6 @@
     <t xml:space="preserve"> Quelles hypothèses macroéconomiques sous-tendent la trajectoire budgétaire (taux d’intérêt, prix du pétrole, inflation, etc</t>
   </si>
   <si>
-    <t>) ?</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Quelle est l’évolution attendue de l’inflation en 2022 selon le rapport ?</t>
   </si>
   <si>
@@ -66,36 +63,6 @@
     <t xml:space="preserve"> Quelles sont les principales mesures nouvelles de politique budgétaire présentées ?</t>
   </si>
   <si>
-    <t xml:space="preserve"> Quelle est la stratégie du gouvernement pour ramener les finances publiques vers les critères de Maastricht ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quelles priorités économiques sont affichées par le gouvernement pour 2022 ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le rapport prévoit-il des mesures pour soutenir l’investissement public ou privé ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comment le rapport justifie-t-il la fin ou la prolongation des dispositifs de soutien exceptionnels (type PGE, activité partielle, etc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quels éléments de la politique de l’emploi ou de la formation sont détaillés dans le rapport ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quelles sont les projections d’emploi et de chômage pour 2022 ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le rapport présente-t-il une évaluation de la pauvreté ou des inégalités en 2022 ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quelle place est accordée à la transition écologique dans le cadrage budgétaire ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quels dispositifs sociaux ou fiscaux sont ajustés ou créés pour soutenir le pouvoir d’achat ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comment la France se positionne-t-elle par rapport à ses partenaires européens en matière de croissance, de dette et de déficit ?</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Quel est le déficit public en 2021 ?</t>
   </si>
   <si>
@@ -117,14 +84,62 @@
     <t>Chunk 1500</t>
   </si>
   <si>
-    <t>Temps d'exécution</t>
+    <t>chevauchement 25</t>
+  </si>
+  <si>
+    <t>Temps d'exécution (en sec)</t>
+  </si>
+  <si>
+    <t>Nombre de chunk</t>
+  </si>
+  <si>
+    <t>Taille moyenne des chunks</t>
+  </si>
+  <si>
+    <t>Score aux questions</t>
+  </si>
+  <si>
+    <t>réponse complète et concise</t>
+  </si>
+  <si>
+    <t>réponse incomplète ou trop longue</t>
+  </si>
+  <si>
+    <t>réponse non pertinente</t>
+  </si>
+  <si>
+    <t>réponse fausse</t>
+  </si>
+  <si>
+    <t>réponse très incomplète ou beaucoup trop longue</t>
+  </si>
+  <si>
+    <t>Barème</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>chunk 1000, chevauchement 50</t>
+  </si>
+  <si>
+    <t>chunk 1000, chevauchement 25</t>
+  </si>
+  <si>
+    <t>chunk 1500, chevauchement 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Score </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modèle </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +153,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFD8DEE9"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -147,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -155,17 +176,194 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,264 +679,806 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23C418F-44BF-4E23-9EF1-8D9BBD572B96}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="54.44140625" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="11"/>
+      <c r="C1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="11"/>
+      <c r="C2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13">
+        <v>2</v>
+      </c>
+      <c r="F3" s="13">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="13">
+        <v>2</v>
+      </c>
+      <c r="H3" s="13">
+        <v>2</v>
+      </c>
+      <c r="I3" s="13">
+        <v>2</v>
+      </c>
+      <c r="J3" s="13">
+        <v>2</v>
+      </c>
+      <c r="K3" s="13">
+        <v>2</v>
+      </c>
+      <c r="L3" s="13">
+        <v>2</v>
+      </c>
+      <c r="M3" s="13">
+        <v>2</v>
+      </c>
+      <c r="N3" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14">
+        <v>2</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14">
+        <v>2</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1</v>
+      </c>
+      <c r="H4" s="14">
+        <v>2</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
+        <v>1</v>
+      </c>
+      <c r="L4" s="14">
+        <v>1</v>
+      </c>
+      <c r="M4" s="14">
+        <v>2</v>
+      </c>
+      <c r="N4" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14">
+        <v>1</v>
+      </c>
+      <c r="G5" s="14">
+        <v>1</v>
+      </c>
+      <c r="H5" s="14">
+        <v>1</v>
+      </c>
+      <c r="I5" s="14">
+        <v>2</v>
+      </c>
+      <c r="J5" s="14">
+        <v>1</v>
+      </c>
+      <c r="K5" s="14">
+        <v>1</v>
+      </c>
+      <c r="L5" s="14">
+        <v>1</v>
+      </c>
+      <c r="M5" s="14">
+        <v>2</v>
+      </c>
+      <c r="N5" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14">
+        <v>2</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14">
+        <v>2</v>
+      </c>
+      <c r="H6" s="14">
+        <v>1</v>
+      </c>
+      <c r="I6" s="14">
+        <v>2</v>
+      </c>
+      <c r="J6" s="14">
+        <v>1</v>
+      </c>
+      <c r="K6" s="14">
+        <v>2</v>
+      </c>
+      <c r="L6" s="14">
+        <v>2</v>
+      </c>
+      <c r="M6" s="14">
+        <v>1</v>
+      </c>
+      <c r="N6" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>2</v>
+      </c>
+      <c r="E7" s="14">
+        <v>2</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14">
+        <v>1</v>
+      </c>
+      <c r="H7" s="14">
+        <v>2</v>
+      </c>
+      <c r="I7" s="14">
+        <v>2</v>
+      </c>
+      <c r="J7" s="14">
+        <v>1</v>
+      </c>
+      <c r="K7" s="14">
+        <v>2</v>
+      </c>
+      <c r="L7" s="14">
+        <v>2</v>
+      </c>
+      <c r="M7" s="14">
+        <v>1</v>
+      </c>
+      <c r="N7" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="D8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="E8" s="14">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="14">
+        <v>2</v>
+      </c>
+      <c r="H8" s="14">
+        <v>2</v>
+      </c>
+      <c r="I8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="J8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="K8" s="14">
+        <v>2</v>
+      </c>
+      <c r="L8" s="14">
+        <v>2</v>
+      </c>
+      <c r="M8" s="14">
+        <v>3</v>
+      </c>
+      <c r="N8" s="14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <v>2</v>
+      </c>
+      <c r="H9" s="14">
+        <v>2</v>
+      </c>
+      <c r="I9" s="14">
+        <v>1</v>
+      </c>
+      <c r="J9" s="14">
+        <v>1</v>
+      </c>
+      <c r="K9" s="14">
+        <v>2</v>
+      </c>
+      <c r="L9" s="14">
+        <v>2</v>
+      </c>
+      <c r="M9" s="14">
+        <v>1</v>
+      </c>
+      <c r="N9" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="14">
+        <v>2</v>
+      </c>
+      <c r="D10" s="14">
+        <v>2</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="14">
+        <v>2</v>
+      </c>
+      <c r="I10" s="14">
+        <v>2</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14">
+        <v>1</v>
+      </c>
+      <c r="L10" s="14">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14">
+        <v>1</v>
+      </c>
+      <c r="N10" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="14">
+        <v>2</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14">
+        <v>2</v>
+      </c>
+      <c r="H11" s="14">
+        <v>1</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
+        <v>2</v>
+      </c>
+      <c r="L11" s="14">
+        <v>1</v>
+      </c>
+      <c r="M11" s="14">
+        <v>1</v>
+      </c>
+      <c r="N11" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14">
+        <v>2</v>
+      </c>
+      <c r="H12" s="15">
+        <v>2</v>
+      </c>
+      <c r="I12" s="15">
+        <v>1</v>
+      </c>
+      <c r="J12" s="15">
+        <v>1</v>
+      </c>
+      <c r="K12" s="14">
+        <v>1</v>
+      </c>
+      <c r="L12" s="15">
+        <v>1</v>
+      </c>
+      <c r="M12" s="15">
+        <v>1</v>
+      </c>
+      <c r="N12" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="16">
+        <f>SUM(C3:C12)</f>
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="D13" s="16">
+        <f>SUM(D3:D12)</f>
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" s="16">
+        <f>SUM(E3:E12)</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="F13" s="16">
+        <f>SUM(F3:F12)</f>
+        <v>4</v>
+      </c>
+      <c r="G13" s="16">
+        <f>SUM(G3:G12)</f>
+        <v>16</v>
+      </c>
+      <c r="H13" s="16">
+        <f>SUM(H3:H12)</f>
+        <v>17</v>
+      </c>
+      <c r="I13" s="16">
+        <f>SUM(I3:I12)</f>
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="J13" s="16">
+        <f>SUM(J3:J12)</f>
+        <v>5</v>
+      </c>
+      <c r="K13" s="16">
+        <f>SUM(K3:K12)</f>
+        <v>16</v>
+      </c>
+      <c r="L13" s="16">
+        <f>SUM(L3:L12)</f>
+        <v>14</v>
+      </c>
+      <c r="M13" s="16">
+        <f>SUM(M3:M12)</f>
+        <v>15</v>
+      </c>
+      <c r="N13" s="16">
+        <f>SUM(N3:N12)</f>
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1976</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1976</v>
+      </c>
+      <c r="E14" s="15">
+        <v>2025</v>
+      </c>
+      <c r="F14" s="15">
+        <v>2081</v>
+      </c>
+      <c r="G14" s="15">
+        <v>992</v>
+      </c>
+      <c r="H14" s="15">
+        <v>993</v>
+      </c>
+      <c r="I14" s="15">
+        <v>999</v>
+      </c>
+      <c r="J14" s="15">
+        <v>1005</v>
+      </c>
+      <c r="K14" s="15">
+        <v>643</v>
+      </c>
+      <c r="L14" s="15">
+        <v>643</v>
+      </c>
+      <c r="M14" s="15">
+        <v>646</v>
+      </c>
+      <c r="N14" s="15">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="16">
+        <v>339</v>
+      </c>
+      <c r="D15" s="15">
+        <v>343</v>
+      </c>
+      <c r="E15" s="15">
+        <v>355</v>
+      </c>
+      <c r="F15" s="15">
+        <v>366</v>
+      </c>
+      <c r="G15" s="16">
+        <v>668</v>
+      </c>
+      <c r="H15" s="15">
+        <v>670</v>
+      </c>
+      <c r="I15" s="15">
+        <v>675</v>
+      </c>
+      <c r="J15" s="15">
+        <v>683</v>
+      </c>
+      <c r="K15" s="16">
+        <v>1030</v>
+      </c>
+      <c r="L15" s="15">
+        <v>1032</v>
+      </c>
+      <c r="M15" s="15">
+        <v>1034</v>
+      </c>
+      <c r="N15" s="15">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="15">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="D16" s="15">
+        <v>80.41</v>
+      </c>
+      <c r="E16" s="15">
+        <v>51.14</v>
+      </c>
+      <c r="F16" s="15">
+        <v>52.61</v>
+      </c>
+      <c r="G16" s="15">
+        <v>78.510000000000005</v>
+      </c>
+      <c r="H16" s="15">
+        <v>47.31</v>
+      </c>
+      <c r="I16" s="15">
+        <v>46.66</v>
+      </c>
+      <c r="J16" s="15">
+        <v>48.46</v>
+      </c>
+      <c r="K16" s="15">
+        <v>75.08</v>
+      </c>
+      <c r="L16" s="15">
+        <v>45.6</v>
+      </c>
+      <c r="M16" s="15">
+        <v>75.930000000000007</v>
+      </c>
+      <c r="N16" s="15">
+        <v>47.29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C32" s="1"/>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="6"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>